--- a/Danh sach cong viec can Test.xlsx
+++ b/Danh sach cong viec can Test.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="19095" windowHeight="8445" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="19095" windowHeight="8445" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DS Cong Viec Site NganHang" sheetId="1" r:id="rId1"/>
     <sheet name="DS Cong Viec Site MoiGioi" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="DS Cong Viec Site AdminNganHang" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="46">
   <si>
     <t>Mã CV</t>
   </si>
@@ -113,13 +113,59 @@
   </si>
   <si>
     <t>TÊN CÔNG VIỆC</t>
+  </si>
+  <si>
+    <t>Code các chức năng cho hệ thống website Admin Ngân Hàng:</t>
+  </si>
+  <si>
+    <t>_ Quản Lý Thẻ</t>
+  </si>
+  <si>
+    <t>_Đăng nhập</t>
+  </si>
+  <si>
+    <t>_Quản Lý Giao Dich_ Nạp tiền</t>
+  </si>
+  <si>
+    <t>_Quản Lý User_Danh sách user</t>
+  </si>
+  <si>
+    <t>_ Quản Lý Tiện Ích</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>_ Chưa làm gì hết</t>
+  </si>
+  <si>
+    <t>_Ok</t>
+  </si>
+  <si>
+    <t>_ Ok</t>
+  </si>
+  <si>
+    <t>_ Nhưng chỉ tạo User bên admin (admin, Mod, SupMod) không có tạo được user bình thường (khách hàng)</t>
+  </si>
+  <si>
+    <t>_Quản Lý User_Tạo user (Admin, Mod, SupMod)</t>
+  </si>
+  <si>
+    <t>_Quản Lý User_Phân quyền (Admin)</t>
+  </si>
+  <si>
+    <t>_Chưa phân quyền được cho Mod và SupMod trên giao diện.
+_ Sao lại hiện Group lên phần Phân quyền ???</t>
+  </si>
+  <si>
+    <t>_ Chỉ xem Danh Sách thôi chứ không thao tác được gì</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,7 +201,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,6 +211,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -196,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -235,6 +287,13 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -247,19 +306,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -338,6 +398,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -372,6 +433,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -547,14 +609,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="78.42578125" style="2" customWidth="1"/>
@@ -563,26 +625,26 @@
     <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1">
+    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:4" ht="65.25" customHeight="1">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:4" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="9"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
@@ -596,7 +658,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>1</v>
       </c>
@@ -608,7 +670,7 @@
       </c>
       <c r="D5" s="13"/>
     </row>
-    <row r="6" spans="1:4" ht="33">
+    <row r="6" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>2</v>
       </c>
@@ -620,7 +682,7 @@
       </c>
       <c r="D6" s="13"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>3</v>
       </c>
@@ -632,7 +694,7 @@
       </c>
       <c r="D7" s="13"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="12" t="s">
         <v>5</v>
@@ -640,7 +702,7 @@
       <c r="C8" s="11"/>
       <c r="D8" s="13"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="12" t="s">
         <v>6</v>
@@ -648,7 +710,7 @@
       <c r="C9" s="11"/>
       <c r="D9" s="13"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="12" t="s">
         <v>7</v>
@@ -656,7 +718,7 @@
       <c r="C10" s="11"/>
       <c r="D10" s="13"/>
     </row>
-    <row r="11" spans="1:4" ht="33">
+    <row r="11" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="12" t="s">
         <v>8</v>
@@ -664,7 +726,7 @@
       <c r="C11" s="11"/>
       <c r="D11" s="13"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="12" t="s">
         <v>9</v>
@@ -672,7 +734,7 @@
       <c r="C12" s="11"/>
       <c r="D12" s="13"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="12" t="s">
         <v>10</v>
@@ -680,7 +742,7 @@
       <c r="C13" s="11"/>
       <c r="D13" s="13"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>4</v>
       </c>
@@ -692,7 +754,7 @@
       </c>
       <c r="D14" s="13"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
       <c r="C15" s="11" t="s">
@@ -700,7 +762,7 @@
       </c>
       <c r="D15" s="13"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>5</v>
       </c>
@@ -712,236 +774,236 @@
       </c>
       <c r="D16" s="13"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5" customHeight="1">
+    <row r="19" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="9"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="9"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="9"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="9"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="9"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="9"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="9"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="9"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="9"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="9"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="9"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="9"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="9"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="9"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="9"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="9"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="9"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="9"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="9"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="9"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="9"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="9"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="9"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="9"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="9"/>
       <c r="C53" s="8"/>
@@ -957,14 +1019,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5:D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.5703125" style="3" customWidth="1"/>
@@ -974,15 +1036,15 @@
     <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="75" customHeight="1">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="9"/>
       <c r="C3" s="8"/>
@@ -990,22 +1052,22 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="14" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>1</v>
       </c>
@@ -1018,7 +1080,7 @@
       <c r="D5" s="13"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" ht="33">
+    <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>2</v>
       </c>
@@ -1030,7 +1092,7 @@
       </c>
       <c r="D6" s="13"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>3</v>
       </c>
@@ -1042,7 +1104,7 @@
       </c>
       <c r="D7" s="13"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="12" t="s">
         <v>19</v>
@@ -1052,7 +1114,7 @@
       </c>
       <c r="D8" s="13"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="12" t="s">
         <v>5</v>
@@ -1060,7 +1122,7 @@
       <c r="C9" s="11"/>
       <c r="D9" s="13"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="12" t="s">
         <v>20</v>
@@ -1068,7 +1130,7 @@
       <c r="C10" s="11"/>
       <c r="D10" s="13"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="12" t="s">
         <v>21</v>
@@ -1076,7 +1138,7 @@
       <c r="C11" s="11"/>
       <c r="D11" s="13"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="12" t="s">
         <v>22</v>
@@ -1084,7 +1146,7 @@
       <c r="C12" s="11"/>
       <c r="D12" s="13"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="12" t="s">
         <v>23</v>
@@ -1092,7 +1154,7 @@
       <c r="C13" s="11"/>
       <c r="D13" s="13"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>4</v>
       </c>
@@ -1104,7 +1166,7 @@
       </c>
       <c r="D14" s="13"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
       <c r="C15" s="11" t="s">
@@ -1112,7 +1174,7 @@
       </c>
       <c r="D15" s="13"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>5</v>
       </c>
@@ -1124,317 +1186,317 @@
       </c>
       <c r="D16" s="13"/>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="19"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="19"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="19"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="19"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="19"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="19"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="19"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="19"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="19"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="19"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="19"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="19"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="19"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="19"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="19"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="19"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="19"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="19"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="19"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="19"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="19"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="19"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="19"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="19"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="19"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="19"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="19"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="19"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="19"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="19"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="19"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="19"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="19"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="19"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="19"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="19"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="19"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="19"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="19"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="19"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="19"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="19"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="19"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="19"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="19"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="19"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="19"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="19"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="19"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="15"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="15"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="15"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="15"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="15"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="15"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="15"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="15"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="15"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="15"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="15"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="15"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="15"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="15"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="15"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="15"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="15"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="15"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="15"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="15"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="15"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="15"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="15"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="15"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="15"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="15"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="15"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="15"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="15"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="15"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="15"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="15"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="15"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="15"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1445,13 +1507,462 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="13"/>
+    </row>
+    <row r="6" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>2</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>3</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="13"/>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>4</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="13">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>5</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>6</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="13">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="13">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>8</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="13">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>9</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>10</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="13"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+    </row>
+    <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+    </row>
+    <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+    </row>
+    <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+    </row>
+    <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+    </row>
+    <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+    </row>
+    <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+    </row>
+    <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+    </row>
+    <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+    </row>
+    <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+    </row>
+    <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+    </row>
+    <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+    </row>
+    <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+    </row>
+    <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+    </row>
+    <row r="46" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+    </row>
+    <row r="47" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+    </row>
+    <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+    </row>
+    <row r="49" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+    </row>
+    <row r="50" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+    </row>
+    <row r="51" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="8"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+    </row>
+    <row r="52" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="8"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+    </row>
+    <row r="53" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="8"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:D2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>